--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.83909699574361</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N2">
-        <v>3.83909699574361</v>
+        <v>11.794283</v>
       </c>
       <c r="O2">
-        <v>0.376713073902891</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P2">
-        <v>0.376713073902891</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q2">
-        <v>1.188386347427376</v>
+        <v>2.058782520486333</v>
       </c>
       <c r="R2">
-        <v>1.188386347427376</v>
+        <v>18.529042684377</v>
       </c>
       <c r="S2">
-        <v>0.0003505257300015999</v>
+        <v>0.0005180521897077572</v>
       </c>
       <c r="T2">
-        <v>0.0003505257300015999</v>
+        <v>0.0006029225940393749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25217898990058</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N3">
-        <v>1.25217898990058</v>
+        <v>3.92893</v>
       </c>
       <c r="O3">
-        <v>0.122870611731105</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P3">
-        <v>0.122870611731105</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q3">
-        <v>0.387610007713551</v>
+        <v>0.6858248532966668</v>
       </c>
       <c r="R3">
-        <v>0.387610007713551</v>
+        <v>6.17242367967</v>
       </c>
       <c r="S3">
-        <v>0.0001143292172649445</v>
+        <v>0.0001725743557033945</v>
       </c>
       <c r="T3">
-        <v>0.0001143292172649445</v>
+        <v>0.0002008465175372781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.595424181339672</v>
+        <v>0.367377</v>
       </c>
       <c r="N4">
-        <v>0.595424181339672</v>
+        <v>1.102131</v>
       </c>
       <c r="O4">
-        <v>0.05842625853873065</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P4">
-        <v>0.05842625853873065</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q4">
-        <v>0.1843126049736943</v>
+        <v>0.192385415721</v>
       </c>
       <c r="R4">
-        <v>0.1843126049736943</v>
+        <v>1.731468741489</v>
       </c>
       <c r="S4">
-        <v>5.436473630546222E-05</v>
+        <v>4.841001168912093E-05</v>
       </c>
       <c r="T4">
-        <v>5.436473630546222E-05</v>
+        <v>5.634082898394164E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.50433715478759</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N5">
-        <v>4.50433715478759</v>
+        <v>1.797082</v>
       </c>
       <c r="O5">
-        <v>0.4419900558272734</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P5">
-        <v>0.4419900558272734</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q5">
-        <v>1.394310376865751</v>
+        <v>0.3136944407286667</v>
       </c>
       <c r="R5">
-        <v>1.394310376865751</v>
+        <v>2.823249966558</v>
       </c>
       <c r="S5">
-        <v>0.0004112649592093541</v>
+        <v>7.893504549487203E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004112649592093541</v>
+        <v>9.186665617074542E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H6">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I6">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J6">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.83909699574361</v>
+        <v>4.5056325</v>
       </c>
       <c r="N6">
-        <v>3.83909699574361</v>
+        <v>9.011265</v>
       </c>
       <c r="O6">
-        <v>0.376713073902891</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P6">
-        <v>0.376713073902891</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q6">
-        <v>1059.435174504968</v>
+        <v>2.3594780881725</v>
       </c>
       <c r="R6">
-        <v>1059.435174504968</v>
+        <v>14.156868529035</v>
       </c>
       <c r="S6">
-        <v>0.3124903687564624</v>
+        <v>0.0005937163240809389</v>
       </c>
       <c r="T6">
-        <v>0.3124903687564624</v>
+        <v>0.0004606549859263362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.25217898990058</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N7">
-        <v>1.25217898990058</v>
+        <v>11.794283</v>
       </c>
       <c r="O7">
-        <v>0.122870611731105</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P7">
-        <v>0.122870611731105</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q7">
-        <v>345.5506511420715</v>
+        <v>1143.643246292562</v>
       </c>
       <c r="R7">
-        <v>345.5506511420715</v>
+        <v>10292.78921663306</v>
       </c>
       <c r="S7">
-        <v>0.1019234144740163</v>
+        <v>0.2877753633960302</v>
       </c>
       <c r="T7">
-        <v>0.1019234144740163</v>
+        <v>0.3349204424697758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.595424181339672</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N8">
-        <v>0.595424181339672</v>
+        <v>3.92893</v>
       </c>
       <c r="O8">
-        <v>0.05842625853873065</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P8">
-        <v>0.05842625853873065</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q8">
-        <v>164.3129418614463</v>
+        <v>380.9722269387834</v>
       </c>
       <c r="R8">
-        <v>164.3129418614463</v>
+        <v>3428.75004244905</v>
       </c>
       <c r="S8">
-        <v>0.04846564757275931</v>
+        <v>0.09586417915421945</v>
       </c>
       <c r="T8">
-        <v>0.04846564757275931</v>
+        <v>0.1115692216332927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.50433715478759</v>
+        <v>0.367377</v>
       </c>
       <c r="N9">
-        <v>4.50433715478759</v>
+        <v>1.102131</v>
       </c>
       <c r="O9">
-        <v>0.4419900558272734</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P9">
-        <v>0.4419900558272734</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q9">
-        <v>1243.014496612707</v>
+        <v>106.869122496015</v>
       </c>
       <c r="R9">
-        <v>1243.014496612707</v>
+        <v>961.8221024641351</v>
       </c>
       <c r="S9">
-        <v>0.3666388163840524</v>
+        <v>0.02689151591792652</v>
       </c>
       <c r="T9">
-        <v>0.3666388163840524</v>
+        <v>0.03129704469357369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J10">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.83909699574361</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N10">
-        <v>3.83909699574361</v>
+        <v>1.797082</v>
       </c>
       <c r="O10">
-        <v>0.376713073902891</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P10">
-        <v>0.376713073902891</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q10">
-        <v>72.36765810371502</v>
+        <v>174.2556705086634</v>
       </c>
       <c r="R10">
-        <v>72.36765810371502</v>
+        <v>1568.30103457797</v>
       </c>
       <c r="S10">
-        <v>0.02134552137882171</v>
+        <v>0.04384801734895328</v>
       </c>
       <c r="T10">
-        <v>0.02134552137882171</v>
+        <v>0.05103146147963972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J11">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.25217898990058</v>
+        <v>4.5056325</v>
       </c>
       <c r="N11">
-        <v>1.25217898990058</v>
+        <v>9.011265</v>
       </c>
       <c r="O11">
-        <v>0.122870611731105</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P11">
-        <v>0.122870611731105</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q11">
-        <v>23.60379566503461</v>
+        <v>1310.678108767088</v>
       </c>
       <c r="R11">
-        <v>23.60379566503461</v>
+        <v>7864.068652602526</v>
       </c>
       <c r="S11">
-        <v>0.006962161526178652</v>
+        <v>0.3298064062096349</v>
       </c>
       <c r="T11">
-        <v>0.006962161526178652</v>
+        <v>0.2558915078612582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.595424181339672</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N12">
-        <v>0.595424181339672</v>
+        <v>11.794283</v>
       </c>
       <c r="O12">
-        <v>0.05842625853873065</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P12">
-        <v>0.05842625853873065</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q12">
-        <v>11.22385124148905</v>
+        <v>152.0842979523528</v>
       </c>
       <c r="R12">
-        <v>11.22385124148905</v>
+        <v>1368.758681571175</v>
       </c>
       <c r="S12">
-        <v>0.003310580484510944</v>
+        <v>0.03826902685951104</v>
       </c>
       <c r="T12">
-        <v>0.003310580484510944</v>
+        <v>0.04453848744180573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.50433715478759</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N13">
-        <v>4.50433715478759</v>
+        <v>3.92893</v>
       </c>
       <c r="O13">
-        <v>0.4419900558272734</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P13">
-        <v>0.4419900558272734</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q13">
-        <v>84.90755288624604</v>
+        <v>50.66255920380555</v>
       </c>
       <c r="R13">
-        <v>84.90755288624604</v>
+        <v>455.96303283425</v>
       </c>
       <c r="S13">
-        <v>0.02504428128321262</v>
+        <v>0.0127482380827337</v>
       </c>
       <c r="T13">
-        <v>0.02504428128321262</v>
+        <v>0.01483673059775942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H14">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I14">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J14">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.83909699574361</v>
+        <v>0.367377</v>
       </c>
       <c r="N14">
-        <v>3.83909699574361</v>
+        <v>1.102131</v>
       </c>
       <c r="O14">
-        <v>0.376713073902891</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P14">
-        <v>0.376713073902891</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q14">
-        <v>142.062908325825</v>
+        <v>14.211700650775</v>
       </c>
       <c r="R14">
-        <v>142.062908325825</v>
+        <v>127.905305856975</v>
       </c>
       <c r="S14">
-        <v>0.04190279091884581</v>
+        <v>0.003576095371096298</v>
       </c>
       <c r="T14">
-        <v>0.04190279091884581</v>
+        <v>0.004161952676794747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H15">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I15">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J15">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25217898990058</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N15">
-        <v>1.25217898990058</v>
+        <v>1.797082</v>
       </c>
       <c r="O15">
-        <v>0.122870611731105</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P15">
-        <v>0.122870611731105</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q15">
-        <v>46.33594547024839</v>
+        <v>23.17291812760556</v>
       </c>
       <c r="R15">
-        <v>46.33594547024839</v>
+        <v>208.55626314845</v>
       </c>
       <c r="S15">
-        <v>0.01366722290813402</v>
+        <v>0.005831009763522192</v>
       </c>
       <c r="T15">
-        <v>0.01366722290813402</v>
+        <v>0.006786280614844931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H16">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I16">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J16">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.595424181339672</v>
+        <v>4.5056325</v>
       </c>
       <c r="N16">
-        <v>0.595424181339672</v>
+        <v>9.011265</v>
       </c>
       <c r="O16">
-        <v>0.05842625853873065</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P16">
-        <v>0.05842625853873065</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q16">
-        <v>22.03322577742091</v>
+        <v>174.2969764911875</v>
       </c>
       <c r="R16">
-        <v>22.03322577742091</v>
+        <v>1045.781858947125</v>
       </c>
       <c r="S16">
-        <v>0.00649890716654544</v>
+        <v>0.04385841118826448</v>
       </c>
       <c r="T16">
-        <v>0.00649890716654544</v>
+        <v>0.03402903873319671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.0042508650679</v>
+        <v>40.106198</v>
       </c>
       <c r="H17">
-        <v>37.0042508650679</v>
+        <v>120.318594</v>
       </c>
       <c r="I17">
-        <v>0.1112326431485824</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J17">
-        <v>0.1112326431485824</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.50433715478759</v>
+        <v>3.931427666666667</v>
       </c>
       <c r="N17">
-        <v>4.50433715478759</v>
+        <v>11.794283</v>
       </c>
       <c r="O17">
-        <v>0.4419900558272734</v>
+        <v>0.3669735923346364</v>
       </c>
       <c r="P17">
-        <v>0.4419900558272734</v>
+        <v>0.4268080945104293</v>
       </c>
       <c r="Q17">
-        <v>166.6796220566062</v>
+        <v>157.6746164220113</v>
       </c>
       <c r="R17">
-        <v>166.6796220566062</v>
+        <v>1419.071547798102</v>
       </c>
       <c r="S17">
-        <v>0.04916372215505709</v>
+        <v>0.03967572071646403</v>
       </c>
       <c r="T17">
-        <v>0.04916372215505709</v>
+        <v>0.04617563428936909</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H18">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I18">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J18">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.83909699574361</v>
+        <v>1.309643333333333</v>
       </c>
       <c r="N18">
-        <v>3.83909699574361</v>
+        <v>3.92893</v>
       </c>
       <c r="O18">
-        <v>0.376713073902891</v>
+        <v>0.122246817049525</v>
       </c>
       <c r="P18">
-        <v>0.376713073902891</v>
+        <v>0.1421789799994507</v>
       </c>
       <c r="Q18">
-        <v>2.115094850638529</v>
+        <v>52.52481483604667</v>
       </c>
       <c r="R18">
-        <v>2.115094850638529</v>
+        <v>472.72333352442</v>
       </c>
       <c r="S18">
-        <v>0.0006238671187595437</v>
+        <v>0.01321683814052427</v>
       </c>
       <c r="T18">
-        <v>0.0006238671187595437</v>
+        <v>0.01538209951622586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H19">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I19">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J19">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.25217898990058</v>
+        <v>0.367377</v>
       </c>
       <c r="N19">
-        <v>1.25217898990058</v>
+        <v>1.102131</v>
       </c>
       <c r="O19">
-        <v>0.122870611731105</v>
+        <v>0.03429228994194605</v>
       </c>
       <c r="P19">
-        <v>0.122870611731105</v>
+        <v>0.039883597164056</v>
       </c>
       <c r="Q19">
-        <v>0.6898698669381956</v>
+        <v>14.734094702646</v>
       </c>
       <c r="R19">
-        <v>0.6898698669381956</v>
+        <v>132.606852323814</v>
       </c>
       <c r="S19">
-        <v>0.0002034836055110398</v>
+        <v>0.003707545575170379</v>
       </c>
       <c r="T19">
-        <v>0.0002034836055110398</v>
+        <v>0.004314937838525381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H20">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I20">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J20">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.595424181339672</v>
+        <v>0.5990273333333334</v>
       </c>
       <c r="N20">
-        <v>0.595424181339672</v>
+        <v>1.797082</v>
       </c>
       <c r="O20">
-        <v>0.05842625853873065</v>
+        <v>0.05591536486447825</v>
       </c>
       <c r="P20">
-        <v>0.05842625853873065</v>
+        <v>0.06503228251340004</v>
       </c>
       <c r="Q20">
-        <v>0.3280403233607979</v>
+        <v>24.02470883807867</v>
       </c>
       <c r="R20">
-        <v>0.3280403233607979</v>
+        <v>216.222379542708</v>
       </c>
       <c r="S20">
-        <v>9.675857860949685E-05</v>
+        <v>0.00604534616784968</v>
       </c>
       <c r="T20">
-        <v>9.675857860949685E-05</v>
+        <v>0.007035730889279831</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H21">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I21">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J21">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.50433715478759</v>
+        <v>4.5056325</v>
       </c>
       <c r="N21">
-        <v>4.50433715478759</v>
+        <v>9.011265</v>
       </c>
       <c r="O21">
-        <v>0.4419900558272734</v>
+        <v>0.4205719358094143</v>
       </c>
       <c r="P21">
-        <v>0.4419900558272734</v>
+        <v>0.326097045812664</v>
       </c>
       <c r="Q21">
-        <v>2.481599275088305</v>
+        <v>180.703789160235</v>
       </c>
       <c r="R21">
-        <v>2.481599275088305</v>
+        <v>1084.22273496141</v>
       </c>
       <c r="S21">
-        <v>0.000731971045741863</v>
+        <v>0.04547055977570412</v>
       </c>
       <c r="T21">
-        <v>0.000731971045741863</v>
+        <v>0.03527987899939247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7434085</v>
+      </c>
+      <c r="H22">
+        <v>1.486817</v>
+      </c>
+      <c r="I22">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J22">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.931427666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.794283</v>
+      </c>
+      <c r="O22">
+        <v>0.3669735923346364</v>
+      </c>
+      <c r="P22">
+        <v>0.4268080945104293</v>
+      </c>
+      <c r="Q22">
+        <v>2.922656744535167</v>
+      </c>
+      <c r="R22">
+        <v>17.535940467211</v>
+      </c>
+      <c r="S22">
+        <v>0.0007354291729234832</v>
+      </c>
+      <c r="T22">
+        <v>0.0005706077154393683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7434085</v>
+      </c>
+      <c r="H23">
+        <v>1.486817</v>
+      </c>
+      <c r="I23">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J23">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.309643333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.92893</v>
+      </c>
+      <c r="O23">
+        <v>0.122246817049525</v>
+      </c>
+      <c r="P23">
+        <v>0.1421789799994507</v>
+      </c>
+      <c r="Q23">
+        <v>0.9735999859683333</v>
+      </c>
+      <c r="R23">
+        <v>5.84159991581</v>
+      </c>
+      <c r="S23">
+        <v>0.0002449873163442204</v>
+      </c>
+      <c r="T23">
+        <v>0.0001900817346354329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7434085</v>
+      </c>
+      <c r="H24">
+        <v>1.486817</v>
+      </c>
+      <c r="I24">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J24">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.367377</v>
+      </c>
+      <c r="N24">
+        <v>1.102131</v>
+      </c>
+      <c r="O24">
+        <v>0.03429228994194605</v>
+      </c>
+      <c r="P24">
+        <v>0.039883597164056</v>
+      </c>
+      <c r="Q24">
+        <v>0.2731111845045</v>
+      </c>
+      <c r="R24">
+        <v>1.638667107027</v>
+      </c>
+      <c r="S24">
+        <v>6.872306606373032E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.3321126178243E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7434085</v>
+      </c>
+      <c r="H25">
+        <v>1.486817</v>
+      </c>
+      <c r="I25">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J25">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5990273333333334</v>
+      </c>
+      <c r="N25">
+        <v>1.797082</v>
+      </c>
+      <c r="O25">
+        <v>0.05591536486447825</v>
+      </c>
+      <c r="P25">
+        <v>0.06503228251340004</v>
+      </c>
+      <c r="Q25">
+        <v>0.4453220113323333</v>
+      </c>
+      <c r="R25">
+        <v>2.671932067994</v>
+      </c>
+      <c r="S25">
+        <v>0.0001120565386582363</v>
+      </c>
+      <c r="T25">
+        <v>8.694287346481435E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7434085</v>
+      </c>
+      <c r="H26">
+        <v>1.486817</v>
+      </c>
+      <c r="I26">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J26">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.5056325</v>
+      </c>
+      <c r="N26">
+        <v>9.011265</v>
+      </c>
+      <c r="O26">
+        <v>0.4205719358094143</v>
+      </c>
+      <c r="P26">
+        <v>0.326097045812664</v>
+      </c>
+      <c r="Q26">
+        <v>3.34952549837625</v>
+      </c>
+      <c r="R26">
+        <v>13.398101993505</v>
+      </c>
+      <c r="S26">
+        <v>0.0008428423117298862</v>
+      </c>
+      <c r="T26">
+        <v>0.0004359652328902689</v>
       </c>
     </row>
   </sheetData>
